--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Retinopatía proliferativa (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Retinopatía proliferativa (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52.32952985074615</v>
+        <v>52.07346600331662</v>
       </c>
       <c r="B2" t="n">
-        <v>33.78151618381619</v>
+        <v>34.32666666666668</v>
       </c>
       <c r="C2" t="n">
-        <v>70.05372433862435</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2777160704414426</v>
+        <v>0.2768159203980091</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8287111467479875</v>
+        <v>0.8133333333333337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.071814925373133</v>
+        <v>1.081956882255389</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2.262915873015869</v>
+        <v>2.206666666666668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3687624823880301</v>
+        <v>0.3865339966832492</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.009987106300419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.812513432835811</v>
+        <v>6.881724709784403</v>
       </c>
       <c r="B6" t="n">
-        <v>3.677951568555284</v>
+        <v>3.153333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>12.09383347763348</v>
+        <v>12.09333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>46.48460033167483</v>
+        <v>46.50388059701481</v>
       </c>
       <c r="B7" t="n">
-        <v>29.92306293706294</v>
+        <v>30.18666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>64.26542222222224</v>
+        <v>63.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92.88729969991304</v>
+        <v>92.90633499170801</v>
       </c>
       <c r="B8" t="n">
-        <v>85.2853594937632</v>
+        <v>85.07999999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>97.04335389484669</v>
+        <v>97.04000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.705049751243775</v>
+        <v>5.713366500829183</v>
       </c>
       <c r="B9" t="n">
-        <v>2.251206840871546</v>
+        <v>2.413333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>9.909194324194317</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92.84596374277038</v>
+        <v>92.7742288557213</v>
       </c>
       <c r="B10" t="n">
-        <v>85.2384022683984</v>
+        <v>85.06666666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>97.0762072172602</v>
+        <v>96.93333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75.73259883913761</v>
+        <v>75.61917081260357</v>
       </c>
       <c r="B11" t="n">
-        <v>61.4913688311688</v>
+        <v>61.37333333333331</v>
       </c>
       <c r="C11" t="n">
-        <v>87.29600555544674</v>
+        <v>87.20666666666664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.77751243781085</v>
+        <v>27.61071310116076</v>
       </c>
       <c r="B12" t="n">
-        <v>15.87629595959596</v>
+        <v>15.83333333333334</v>
       </c>
       <c r="C12" t="n">
-        <v>39.904</v>
+        <v>40.86666666666667</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>90.58422509173707</v>
+        <v>90.51721393034818</v>
       </c>
       <c r="B13" t="n">
-        <v>82.11595971298853</v>
+        <v>82.30666666666664</v>
       </c>
       <c r="C13" t="n">
-        <v>95.83499574842767</v>
+        <v>95.63333333333331</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>85.86455347034034</v>
+        <v>85.78766169154218</v>
       </c>
       <c r="B14" t="n">
-        <v>75.14729700661519</v>
+        <v>75.11999999999998</v>
       </c>
       <c r="C14" t="n">
-        <v>93.08644637791407</v>
+        <v>93.04000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4755470855291742</v>
+        <v>0.4273300165837469</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.046263974908247</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.82722520729684</v>
+        <v>7.007927031509111</v>
       </c>
       <c r="B16" t="n">
-        <v>3.677951568555284</v>
+        <v>3.266666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>12.47528412698413</v>
+        <v>12.32666666666667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>27.40547263681582</v>
+        <v>27.33140961857368</v>
       </c>
       <c r="B17" t="n">
-        <v>15.72770202020203</v>
+        <v>15.98</v>
       </c>
       <c r="C17" t="n">
-        <v>39.44927777777775</v>
+        <v>39.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.071814925373133</v>
+        <v>1.081956882255389</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>2.259360317460314</v>
+        <v>2.206666666666668</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>77.14784798231051</v>
+        <v>77.18195688225528</v>
       </c>
       <c r="B19" t="n">
-        <v>64.43323621933624</v>
+        <v>63.90666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>87.19391761560887</v>
+        <v>87.69333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.283791376451065</v>
+        <v>8.376351575456042</v>
       </c>
       <c r="B20" t="n">
-        <v>3.82261031477982</v>
+        <v>4.386666666666665</v>
       </c>
       <c r="C20" t="n">
-        <v>13.57999999999997</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.761232883203032</v>
+        <v>1.732802653399668</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5933333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>3.321054020054016</v>
+        <v>3.346666666666668</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>92.87480338372643</v>
+        <v>92.88470978441119</v>
       </c>
       <c r="B22" t="n">
-        <v>85.22746356890097</v>
+        <v>84.57999999999998</v>
       </c>
       <c r="C22" t="n">
-        <v>97.09236587788065</v>
+        <v>97.11333333333332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4837434415225449</v>
+        <v>0.4887893864013258</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.244582539682539</v>
+        <v>1.253333333333333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.820372802653392</v>
+        <v>6.979800995024868</v>
       </c>
       <c r="B24" t="n">
-        <v>3.677951568555284</v>
+        <v>3.266666666666666</v>
       </c>
       <c r="C24" t="n">
-        <v>12.31983968253969</v>
+        <v>12.23333333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.058556550580422</v>
+        <v>5.03389718076284</v>
       </c>
       <c r="B25" t="n">
-        <v>2.251206840871546</v>
+        <v>2.52</v>
       </c>
       <c r="C25" t="n">
-        <v>8.719495238095249</v>
+        <v>8.506666666666662</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.755473015873016</v>
+        <v>1.758142620232171</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5866666666666666</v>
       </c>
       <c r="C26" t="n">
-        <v>3.202241695341695</v>
+        <v>3.213333333333335</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>90.93762988625512</v>
+        <v>90.96185737976771</v>
       </c>
       <c r="B27" t="n">
-        <v>82.07829366235696</v>
+        <v>82.38000000000002</v>
       </c>
       <c r="C27" t="n">
-        <v>96.01798010839383</v>
+        <v>96.12666666666669</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>50.24041791044774</v>
+        <v>50.42782752902151</v>
       </c>
       <c r="B28" t="n">
-        <v>32.27265292485292</v>
+        <v>32.87999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>66.61252116402125</v>
+        <v>66.59333333333331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5488541893706058</v>
+        <v>0.5404311774461018</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.282668253968254</v>
+        <v>1.286666666666667</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>25.27404975124372</v>
+        <v>25.19943615257042</v>
       </c>
       <c r="B30" t="n">
-        <v>14.39466075036076</v>
+        <v>14.1</v>
       </c>
       <c r="C30" t="n">
-        <v>38.36923968253969</v>
+        <v>38.48666666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>85.40322075884308</v>
+        <v>85.17276948590373</v>
       </c>
       <c r="B31" t="n">
-        <v>73.82270972075577</v>
+        <v>74.26666666666667</v>
       </c>
       <c r="C31" t="n">
-        <v>92.86834602782838</v>
+        <v>92.68000000000002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>90.48414544583407</v>
+        <v>90.68338308457699</v>
       </c>
       <c r="B32" t="n">
-        <v>81.97951821909453</v>
+        <v>82.99999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>95.64091211478754</v>
+        <v>95.4466666666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>85.83225460751164</v>
+        <v>85.77615257048083</v>
       </c>
       <c r="B33" t="n">
-        <v>75.06780609752428</v>
+        <v>74.41333333333331</v>
       </c>
       <c r="C33" t="n">
-        <v>92.92131072794307</v>
+        <v>92.87333333333336</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>58.13404975124363</v>
+        <v>58.0420895522387</v>
       </c>
       <c r="B34" t="n">
-        <v>40.30576837606836</v>
+        <v>40.3</v>
       </c>
       <c r="C34" t="n">
-        <v>74.04133333333344</v>
+        <v>73.95999999999998</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7.39599554607912</v>
+        <v>7.42666666666666</v>
       </c>
       <c r="B35" t="n">
-        <v>3.783574600494106</v>
+        <v>3.639999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>12.45176560846562</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>46.61267993366492</v>
+        <v>46.52215588723045</v>
       </c>
       <c r="B36" t="n">
-        <v>29.98652960372961</v>
+        <v>30.01333333333334</v>
       </c>
       <c r="C36" t="n">
-        <v>63.63900000000009</v>
+        <v>62.94666666666664</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.016472636815919</v>
+        <v>2.010082918739633</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.6066666666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>3.647132082732089</v>
+        <v>3.673333333333332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>86.35625954714155</v>
+        <v>86.18348258706462</v>
       </c>
       <c r="B38" t="n">
-        <v>75.54652449024269</v>
+        <v>76.95333333333332</v>
       </c>
       <c r="C38" t="n">
-        <v>93.41227964671498</v>
+        <v>93.45333333333338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>28.37090547263667</v>
+        <v>28.27900497512423</v>
       </c>
       <c r="B39" t="n">
-        <v>15.90129595959596</v>
+        <v>16.32666666666668</v>
       </c>
       <c r="C39" t="n">
-        <v>42.51200000000007</v>
+        <v>42.70666666666666</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.365472755271262</v>
+        <v>1.360398009950248</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.2733333333333334</v>
       </c>
       <c r="C40" t="n">
-        <v>2.728482780182782</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>42.83661691542274</v>
+        <v>42.78245439469308</v>
       </c>
       <c r="B41" t="n">
-        <v>27.00375238095239</v>
+        <v>26.50000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>59.15466666666664</v>
+        <v>59.10000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>76.4577493090104</v>
+        <v>76.54262023217237</v>
       </c>
       <c r="B42" t="n">
-        <v>63.59572669552672</v>
+        <v>63.05333333333336</v>
       </c>
       <c r="C42" t="n">
-        <v>87.5753715006127</v>
+        <v>87.48666666666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>25.27671641791039</v>
+        <v>25.23734660033162</v>
       </c>
       <c r="B43" t="n">
-        <v>14.39466075036076</v>
+        <v>14.13333333333334</v>
       </c>
       <c r="C43" t="n">
-        <v>38.30123968253969</v>
+        <v>38.48666666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70.22343781094521</v>
+        <v>70.13492537313427</v>
       </c>
       <c r="B44" t="n">
-        <v>54.40416410256412</v>
+        <v>54.20666666666668</v>
       </c>
       <c r="C44" t="n">
-        <v>82.39088888888899</v>
+        <v>82.15333333333332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>77.69444709784402</v>
+        <v>77.37167495854052</v>
       </c>
       <c r="B45" t="n">
-        <v>64.51650606060608</v>
+        <v>65.31333333333335</v>
       </c>
       <c r="C45" t="n">
-        <v>87.45023647278649</v>
+        <v>87.08666666666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>85.0160487519113</v>
+        <v>84.98278606965157</v>
       </c>
       <c r="B46" t="n">
-        <v>73.53940556285657</v>
+        <v>74.27333333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>91.93473342953344</v>
+        <v>91.84666666666668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>92.99302875116254</v>
+        <v>92.9890547263681</v>
       </c>
       <c r="B47" t="n">
-        <v>85.12167693655759</v>
+        <v>84.33999999999997</v>
       </c>
       <c r="C47" t="n">
-        <v>97.21465247106843</v>
+        <v>97.11999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27.87639800995015</v>
+        <v>27.81018242122709</v>
       </c>
       <c r="B48" t="n">
-        <v>15.93029595959596</v>
+        <v>15.89333333333334</v>
       </c>
       <c r="C48" t="n">
-        <v>40.01638888888886</v>
+        <v>40.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.234432848025385</v>
+        <v>1.210049751243781</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.4000000000000002</v>
       </c>
       <c r="C49" t="n">
-        <v>2.435672775372774</v>
+        <v>2.320000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.019990049751242</v>
+        <v>2.059336650082917</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="C50" t="n">
-        <v>3.832523809523812</v>
+        <v>3.859999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.2781671483850579</v>
+        <v>0.2844776119402977</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.826532406969248</v>
+        <v>0.8333333333333337</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>84.193990665719</v>
+        <v>84.22298507462685</v>
       </c>
       <c r="B52" t="n">
-        <v>73.51239657515974</v>
+        <v>73.69999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>92.03318387168387</v>
+        <v>91.67999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>28.0853134328357</v>
+        <v>27.90723051409605</v>
       </c>
       <c r="B53" t="n">
-        <v>15.95529595959596</v>
+        <v>16.17333333333334</v>
       </c>
       <c r="C53" t="n">
-        <v>41.35288888888893</v>
+        <v>41.00666666666667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4441991427036198</v>
+        <v>0.42898839137645</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1.039363974908247</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.756025586353944</v>
+        <v>1.73927031509121</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.5933333333333333</v>
       </c>
       <c r="C55" t="n">
-        <v>3.210241166241165</v>
+        <v>3.246666666666668</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>85.52343982500284</v>
+        <v>85.68315091210609</v>
       </c>
       <c r="B56" t="n">
-        <v>74.6089507117336</v>
+        <v>75.10666666666664</v>
       </c>
       <c r="C56" t="n">
-        <v>92.73201351546051</v>
+        <v>92.73333333333335</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>90.47695524300208</v>
+        <v>90.33379767827522</v>
       </c>
       <c r="B57" t="n">
-        <v>81.72589466905279</v>
+        <v>81.64000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>95.65463266563259</v>
+        <v>95.70666666666666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.984026533996682</v>
+        <v>1.999237147595354</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.6</v>
       </c>
       <c r="C58" t="n">
-        <v>3.640298749398757</v>
+        <v>3.666666666666665</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>73.77486841980561</v>
+        <v>73.75804311774455</v>
       </c>
       <c r="B59" t="n">
-        <v>57.9792230880231</v>
+        <v>57.73999999999997</v>
       </c>
       <c r="C59" t="n">
-        <v>85.48895295815289</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.5454862670773101</v>
+        <v>0.5696185737976766</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1.363815873015875</v>
+        <v>1.373333333333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>85.90670256066406</v>
+        <v>86.10195688225529</v>
       </c>
       <c r="B61" t="n">
-        <v>75.70595089716909</v>
+        <v>75.05333333333333</v>
       </c>
       <c r="C61" t="n">
-        <v>93.18631108129347</v>
+        <v>93.26666666666668</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>75.74300679933661</v>
+        <v>75.58560530679925</v>
       </c>
       <c r="B62" t="n">
-        <v>61.32496883116881</v>
+        <v>61.11333333333331</v>
       </c>
       <c r="C62" t="n">
-        <v>87.27549117353234</v>
+        <v>87.16666666666664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>86.50104458659072</v>
+        <v>86.27880597014912</v>
       </c>
       <c r="B63" t="n">
-        <v>75.02270575176459</v>
+        <v>74.7</v>
       </c>
       <c r="C63" t="n">
-        <v>93.27754286182228</v>
+        <v>93.55333333333328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.5476554213061661</v>
+        <v>0.5758872305140947</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.359315873015875</v>
+        <v>1.373333333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>89.95155372205252</v>
+        <v>89.93485903814243</v>
       </c>
       <c r="B65" t="n">
-        <v>81.28294633935252</v>
+        <v>80.58666666666669</v>
       </c>
       <c r="C65" t="n">
-        <v>95.33951533487074</v>
+        <v>95.11333333333337</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>57.07977114427851</v>
+        <v>56.87870646766162</v>
       </c>
       <c r="B66" t="n">
-        <v>39.65212133422133</v>
+        <v>39.69333333333331</v>
       </c>
       <c r="C66" t="n">
-        <v>72.69885555555553</v>
+        <v>72.72666666666665</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>54.27845605306786</v>
+        <v>54.75339966832492</v>
       </c>
       <c r="B67" t="n">
-        <v>37.3079974025974</v>
+        <v>37.35333333333333</v>
       </c>
       <c r="C67" t="n">
-        <v>71.1293222222222</v>
+        <v>71.11333333333337</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.575707415304429</v>
+        <v>1.579800995024875</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.4133333333333334</v>
       </c>
       <c r="C68" t="n">
-        <v>3.24210279350279</v>
+        <v>3.046666666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>93.03123737625776</v>
+        <v>93.08036484245432</v>
       </c>
       <c r="B69" t="n">
-        <v>85.23665536502629</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>97.21596664763261</v>
+        <v>97.08666666666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.366825989102108</v>
+        <v>1.376517412935322</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4324064063477293</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>2.734971669071671</v>
+        <v>2.746666666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>16.75296517412935</v>
+        <v>16.67555555555554</v>
       </c>
       <c r="B71" t="n">
-        <v>8.799566477966472</v>
+        <v>8.506666666666666</v>
       </c>
       <c r="C71" t="n">
-        <v>26.05255555555561</v>
+        <v>26.06666666666666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20.65501824212258</v>
+        <v>20.76772802653386</v>
       </c>
       <c r="B72" t="n">
-        <v>11.11608685470166</v>
+        <v>10.74666666666667</v>
       </c>
       <c r="C72" t="n">
-        <v>32.81305714285718</v>
+        <v>32.77333333333333</v>
       </c>
     </row>
   </sheetData>
